--- a/Req_Analyse.xlsx
+++ b/Req_Analyse.xlsx
@@ -5,27 +5,38 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joris\Desktop\DIHM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\GitHub\DIHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2407F39-413A-4202-AA06-81631D3732D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B82F87D-93DD-4DAB-AB65-F43F8DEC72D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -39,19 +50,40 @@
     <t>Validatie</t>
   </si>
   <si>
-    <t>IHM can be obtained and viewed by anyone on the ship</t>
-  </si>
-  <si>
-    <t>IHM must be able to be overwritten by someone with the right credentials. This change and who made it has to documented in the IHM to be seen by anyone</t>
-  </si>
-  <si>
-    <t>The IHM must be able to be validated by someone with the right credentials and this validation has to be written in the IHM</t>
-  </si>
-  <si>
     <t>Security is a priority so a secure connection with the IHM has to be made and credentials must not be easy to imitate.</t>
   </si>
   <si>
-    <t>…</t>
+    <t>IHM status and changes can be seen on the module by anyone on the ship with the right authorisation.</t>
+  </si>
+  <si>
+    <t>Every certified validation of the IHM must be logged in the IHM</t>
+  </si>
+  <si>
+    <t>Changes to the IHM must be able be validated by a consensus mechanism to prevent tampering</t>
+  </si>
+  <si>
+    <t>Server will respond with a message (IHM in order) if IHM exists on server and in terminal will show up to 20 lines of IHM changes.</t>
+  </si>
+  <si>
+    <t>Demonstration</t>
+  </si>
+  <si>
+    <t>IHM must be able to be updated by someone with the right credentials. This change and who made it has to documented in the IHM to be seen by anyone</t>
+  </si>
+  <si>
+    <t>The right people get access to the IHM server where they can add information to the IHM without overwriting the first version to avoid tampering. Also the name and date of the change will be logged in there as well.</t>
+  </si>
+  <si>
+    <t>Before finalizing the unchangeable update to the IHM the change must be verified by other stakeholders.</t>
+  </si>
+  <si>
+    <t>When a routine IHM validation will be conducted, this will be written on the IHM server as an additional update with the person/company, and date</t>
+  </si>
+  <si>
+    <t>Use a form of encryption when connecting with servers and communicating with the module on the ship</t>
+  </si>
+  <si>
+    <t>Analysis/Inspection</t>
   </si>
 </sst>
 </file>
@@ -381,17 +413,17 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,50 +437,75 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Req_Analyse.xlsx
+++ b/Req_Analyse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joris\Documents\GitHub\DIHM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B82F87D-93DD-4DAB-AB65-F43F8DEC72D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B6B79F-81E3-443F-9A55-FB1888C1D843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,18 +53,12 @@
     <t>Security is a priority so a secure connection with the IHM has to be made and credentials must not be easy to imitate.</t>
   </si>
   <si>
-    <t>IHM status and changes can be seen on the module by anyone on the ship with the right authorisation.</t>
-  </si>
-  <si>
     <t>Every certified validation of the IHM must be logged in the IHM</t>
   </si>
   <si>
     <t>Changes to the IHM must be able be validated by a consensus mechanism to prevent tampering</t>
   </si>
   <si>
-    <t>Server will respond with a message (IHM in order) if IHM exists on server and in terminal will show up to 20 lines of IHM changes.</t>
-  </si>
-  <si>
     <t>Demonstration</t>
   </si>
   <si>
@@ -84,6 +78,12 @@
   </si>
   <si>
     <t>Analysis/Inspection</t>
+  </si>
+  <si>
+    <t>IHM status and latest changes can be seen on the module by anyone on the ship with the right authorisation.</t>
+  </si>
+  <si>
+    <t>Server will respond with a message (IHM is valid) if IHM exists on server and in terminal will show up to 20 lines of IHM changes.</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,13 +442,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -456,13 +456,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="52.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -470,13 +470,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -484,13 +484,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -501,10 +501,10 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
